--- a/T3/P1/resultados_tarea3_p1.xlsx
+++ b/T3/P1/resultados_tarea3_p1.xlsx
@@ -5,30 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DiegoYera\Desktop\2025-2\Econo_Med\Tareas_Economed\T3\P1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/dpgarces_uc_cl/Documents/Universidad/2025-2/Econo&amp;Med/Tareas_Economed/T3/P1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D0C9CA-20BA-430F-A249-AAD94EDDA07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD320D10C4BD9391159A228F140AFFA81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F6D80C8-C893-48F8-9AB5-FA06E1A85F9F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -421,20 +408,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -486,134 +467,134 @@
         <v>1257.493546554799</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1875.7649621533701</v>
+        <v>1878.486735630092</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.9389319128001432</v>
       </c>
       <c r="D3">
-        <v>21290785.350554999</v>
+        <v>20226246.08302724</v>
       </c>
       <c r="E3">
-        <v>2773.5927994945159</v>
+        <v>2742.937256902575</v>
       </c>
       <c r="F3">
-        <v>15133.4862190326</v>
+        <v>14391.26074284994</v>
       </c>
       <c r="G3">
-        <v>104511.25525439371</v>
+        <v>103079.1902053111</v>
       </c>
       <c r="H3">
-        <v>1257.493546554799</v>
+        <v>1200.434922971396</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
       <c r="B4">
-        <v>1875.7649621533701</v>
+        <v>1881.3588447173281</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>5.2401943363281926</v>
       </c>
       <c r="D4">
-        <v>21290785.350554999</v>
+        <v>19161706.815499499</v>
       </c>
       <c r="E4">
-        <v>2773.5927994945159</v>
+        <v>2711.5996193882429</v>
       </c>
       <c r="F4">
-        <v>15133.4862190326</v>
+        <v>13669.13050035026</v>
       </c>
       <c r="G4">
-        <v>104511.25525439371</v>
+        <v>101623.2608864772</v>
       </c>
       <c r="H4">
-        <v>1257.493546554799</v>
+        <v>1143.3234273676251</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1875.7649621533701</v>
+        <v>1886.2118397443201</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5.2401943363281784</v>
       </c>
       <c r="D5">
-        <v>21290785.350554999</v>
+        <v>18097167.547971752</v>
       </c>
       <c r="E5">
-        <v>2773.5927994945159</v>
+        <v>2671.2744090911328</v>
       </c>
       <c r="F5">
-        <v>15133.4862190326</v>
+        <v>13211.783603078131</v>
       </c>
       <c r="G5">
-        <v>104511.25525439371</v>
+        <v>99852.885800262608</v>
       </c>
       <c r="H5">
-        <v>1257.493546554799</v>
+        <v>1085.515267537746</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
       <c r="B6">
-        <v>1875.7649621533701</v>
+        <v>1897.9437708748351</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>19.107190498780469</v>
       </c>
       <c r="D6">
-        <v>21290785.350554999</v>
+        <v>17032628.280444</v>
       </c>
       <c r="E6">
-        <v>2773.5927994945159</v>
+        <v>2656.9414356633501</v>
       </c>
       <c r="F6">
-        <v>15133.4862190326</v>
+        <v>12495.971318050641</v>
       </c>
       <c r="G6">
-        <v>104511.25525439371</v>
+        <v>98883.711466745051</v>
       </c>
       <c r="H6">
-        <v>1257.493546554799</v>
+        <v>1029.069197729641</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
       <c r="B7">
-        <v>1875.7649621533701</v>
+        <v>1916.3828907058951</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>20.14844115539173</v>
       </c>
       <c r="D7">
-        <v>21290785.350554999</v>
+        <v>15968089.01291625</v>
       </c>
       <c r="E7">
-        <v>2773.5927994945159</v>
+        <v>2529.244265657725</v>
       </c>
       <c r="F7">
-        <v>15133.4862190326</v>
+        <v>12168.951501784581</v>
       </c>
       <c r="G7">
-        <v>104511.25525439371</v>
+        <v>94103.080416504818</v>
       </c>
       <c r="H7">
-        <v>1257.493546554799</v>
+        <v>964.8470545783498</v>
       </c>
     </row>
   </sheetData>

--- a/T3/P1/resultados_tarea3_p1.xlsx
+++ b/T3/P1/resultados_tarea3_p1.xlsx
@@ -1,72 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/dpgarces_uc_cl/Documents/Universidad/2025-2/Econo&amp;Med/Tareas_Economed/T3/P1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD320D10C4BD9391159A228F140AFFA81" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F6D80C8-C893-48F8-9AB5-FA06E1A85F9F}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Meta (%)</t>
-  </si>
-  <si>
-    <t>Costo Total Sistema (MMUSD)</t>
-  </si>
-  <si>
-    <t>Costo Marginal CO2 ($/ton)</t>
-  </si>
-  <si>
-    <t>Emisiones CO2 (ton)</t>
-  </si>
-  <si>
-    <t>Emisiones MP (ton)</t>
-  </si>
-  <si>
-    <t>Emisiones SOx (ton)</t>
-  </si>
-  <si>
-    <t>Emisiones NOx (ton)</t>
-  </si>
-  <si>
-    <t>Daño Ambiental Total (MMUSD)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,195 +420,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Meta (%)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Costo Total Sistema (MMUSD)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Costo Marginal CO2 ($/ton)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Emisiones CO2 (ton)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Emisiones MP (ton)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Emisiones SOx (ton)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Emisiones NOx (ton)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Daño Ambiental Total (MMUSD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>1875.76496215337</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21290785.350555</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2773.592799494516</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15133.4862190326</v>
+      </c>
+      <c r="G2" t="n">
+        <v>104511.2552543937</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1257.493546554799</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+      <c r="B3" t="n">
+        <v>1878.486735630092</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.938931912800143</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20226246.08302725</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2742.937256902575</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14391.26074284994</v>
+      </c>
+      <c r="G3" t="n">
+        <v>103079.1902053111</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1200.434922971396</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1875.7649621533701</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>21290785.350554999</v>
-      </c>
-      <c r="E2">
-        <v>2773.5927994945159</v>
-      </c>
-      <c r="F2">
-        <v>15133.4862190326</v>
-      </c>
-      <c r="G2">
-        <v>104511.25525439371</v>
-      </c>
-      <c r="H2">
-        <v>1257.493546554799</v>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1881.358844717328</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.240194336328193</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19161706.8154995</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2711.599619388244</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13669.13050035025</v>
+      </c>
+      <c r="G4" t="n">
+        <v>101623.2608864772</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1143.323427367624</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1878.486735630092</v>
-      </c>
-      <c r="C3">
-        <v>2.9389319128001432</v>
-      </c>
-      <c r="D3">
-        <v>20226246.08302724</v>
-      </c>
-      <c r="E3">
-        <v>2742.937256902575</v>
-      </c>
-      <c r="F3">
-        <v>14391.26074284994</v>
-      </c>
-      <c r="G3">
-        <v>103079.1902053111</v>
-      </c>
-      <c r="H3">
-        <v>1200.434922971396</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1886.21183974432</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.240194336328186</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18097167.54797174</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2671.274409091132</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13211.78360307813</v>
+      </c>
+      <c r="G5" t="n">
+        <v>99852.88580026258</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1085.515267537746</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>1881.3588447173281</v>
-      </c>
-      <c r="C4">
-        <v>5.2401943363281926</v>
-      </c>
-      <c r="D4">
-        <v>19161706.815499499</v>
-      </c>
-      <c r="E4">
-        <v>2711.5996193882429</v>
-      </c>
-      <c r="F4">
-        <v>13669.13050035026</v>
-      </c>
-      <c r="G4">
-        <v>101623.2608864772</v>
-      </c>
-      <c r="H4">
-        <v>1143.3234273676251</v>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1897.943770874835</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.10719049878047</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17032628.280444</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2656.94143566335</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12495.97131805064</v>
+      </c>
+      <c r="G6" t="n">
+        <v>98883.71146674505</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1029.069197729641</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>1886.2118397443201</v>
-      </c>
-      <c r="C5">
-        <v>5.2401943363281784</v>
-      </c>
-      <c r="D5">
-        <v>18097167.547971752</v>
-      </c>
-      <c r="E5">
-        <v>2671.2744090911328</v>
-      </c>
-      <c r="F5">
-        <v>13211.783603078131</v>
-      </c>
-      <c r="G5">
-        <v>99852.885800262608</v>
-      </c>
-      <c r="H5">
-        <v>1085.515267537746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6">
-        <v>1897.9437708748351</v>
-      </c>
-      <c r="C6">
-        <v>19.107190498780469</v>
-      </c>
-      <c r="D6">
-        <v>17032628.280444</v>
-      </c>
-      <c r="E6">
-        <v>2656.9414356633501</v>
-      </c>
-      <c r="F6">
-        <v>12495.971318050641</v>
-      </c>
-      <c r="G6">
-        <v>98883.711466745051</v>
-      </c>
-      <c r="H6">
-        <v>1029.069197729641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>1916.3828907058951</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="n">
+        <v>1916.382890705895</v>
+      </c>
+      <c r="C7" t="n">
         <v>20.14844115539173</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>15968089.01291625</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>2529.244265657725</v>
       </c>
-      <c r="F7">
-        <v>12168.951501784581</v>
-      </c>
-      <c r="G7">
-        <v>94103.080416504818</v>
-      </c>
-      <c r="H7">
+      <c r="F7" t="n">
+        <v>12168.95150178458</v>
+      </c>
+      <c r="G7" t="n">
+        <v>94103.08041650482</v>
+      </c>
+      <c r="H7" t="n">
         <v>964.8470545783498</v>
       </c>
     </row>
